--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Source/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE057AF-06D4-7C4B-9623-E5AC9E596F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CF6D7-8899-D24F-8DF0-9EA50A924462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="1140" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="634">
   <si>
     <t>REL 'inheres in' [RO:0000052]</t>
   </si>
@@ -1942,6 +1942,21 @@
   </si>
   <si>
     <t>specifically dependent continuant</t>
+  </si>
+  <si>
+    <t>Curator note</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>Curation status</t>
+  </si>
+  <si>
+    <t>To be reviewed by</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
   </si>
 </sst>
 </file>
@@ -2336,13 +2351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:Z144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2369,7 +2384,7 @@
     <col min="23" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>482</v>
       </c>
@@ -2433,8 +2448,23 @@
       <c r="U1" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>488</v>
       </c>
@@ -2465,7 +2495,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>489</v>
       </c>
@@ -2498,7 +2528,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>490</v>
       </c>
@@ -2529,7 +2559,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>491</v>
       </c>
@@ -2562,7 +2592,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>492</v>
       </c>
@@ -2593,7 +2623,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>493</v>
       </c>
@@ -2626,7 +2656,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>494</v>
       </c>
@@ -2663,7 +2693,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>495</v>
       </c>
@@ -2698,7 +2728,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>496</v>
       </c>
@@ -2735,7 +2765,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>497</v>
       </c>
@@ -2772,7 +2802,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>498</v>
       </c>
@@ -2809,7 +2839,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>499</v>
       </c>
@@ -2846,7 +2876,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>500</v>
       </c>
@@ -2883,7 +2913,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>501</v>
       </c>
@@ -2918,7 +2948,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>502</v>
       </c>
@@ -7333,6 +7363,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC046B428994B048B5D1607E2BC0A9EE" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39e35c52df37ff2180535b714fdb036d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa734e6e-2dd8-4275-9b08-04e206339f53" xmlns:ns3="ac97e7bc-1267-463a-8e0a-d8030d117d70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93c719530b81246d128a373b780dc003" ns2:_="" ns3:_="">
     <xsd:import namespace="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
@@ -7549,12 +7585,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7565,6 +7595,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540B60B0-E773-465F-95E3-DB91DD484912}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
+    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7133DB8A-54D0-4A3D-989C-88F16B30C724}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7583,23 +7630,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540B60B0-E773-465F-95E3-DB91DD484912}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
-    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3E6CAA-8F66-4557-92A1-A396A4C38AC4}">
   <ds:schemaRefs>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Source/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CF6D7-8899-D24F-8DF0-9EA50A924462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562C1BE-98E8-2346-A43F-C84A31031BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1140" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="1120" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source all" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="635">
   <si>
     <t>REL 'inheres in' [RO:0000052]</t>
   </si>
@@ -1957,6 +1957,9 @@
   </si>
   <si>
     <t>Reviewer query</t>
+  </si>
+  <si>
+    <t>Discussed</t>
   </si>
 </sst>
 </file>
@@ -2354,10 +2357,10 @@
   <dimension ref="A1:Z144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2:X141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2494,6 +2497,9 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
+      <c r="X2" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2527,6 +2533,9 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
+      <c r="X3" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2558,6 +2567,9 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
+      <c r="X4" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2591,6 +2603,9 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
+      <c r="X5" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2622,6 +2637,9 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
+      <c r="X6" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2655,6 +2673,9 @@
         <v>428</v>
       </c>
       <c r="U7" s="1"/>
+      <c r="X7" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2692,6 +2713,9 @@
         <v>42</v>
       </c>
       <c r="U8" s="1"/>
+      <c r="X8" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2727,6 +2751,9 @@
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
+      <c r="X9" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2764,6 +2791,9 @@
         <v>430</v>
       </c>
       <c r="U10" s="1"/>
+      <c r="X10" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2801,6 +2831,9 @@
         <v>51</v>
       </c>
       <c r="U11" s="1"/>
+      <c r="X11" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2838,6 +2871,9 @@
         <v>55</v>
       </c>
       <c r="U12" s="1"/>
+      <c r="X12" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2875,6 +2911,9 @@
         <v>429</v>
       </c>
       <c r="U13" s="1"/>
+      <c r="X13" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2912,6 +2951,9 @@
         <v>62</v>
       </c>
       <c r="U14" s="1"/>
+      <c r="X14" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2947,6 +2989,9 @@
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
+      <c r="X15" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2984,8 +3029,11 @@
         <v>69</v>
       </c>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X16" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>503</v>
       </c>
@@ -3021,8 +3069,11 @@
         <v>73</v>
       </c>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X17" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>504</v>
       </c>
@@ -3058,8 +3109,11 @@
         <v>76</v>
       </c>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X18" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>505</v>
       </c>
@@ -3095,8 +3149,11 @@
         <v>79</v>
       </c>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X19" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>506</v>
       </c>
@@ -3132,8 +3189,11 @@
         <v>83</v>
       </c>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X20" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>507</v>
       </c>
@@ -3169,8 +3229,11 @@
         <v>87</v>
       </c>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X21" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>508</v>
       </c>
@@ -3206,8 +3269,11 @@
         <v>91</v>
       </c>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X22" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>509</v>
       </c>
@@ -3243,8 +3309,11 @@
         <v>95</v>
       </c>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X23" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>510</v>
       </c>
@@ -3280,8 +3349,11 @@
         <v>99</v>
       </c>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X24" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>511</v>
       </c>
@@ -3317,8 +3389,11 @@
         <v>103</v>
       </c>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X25" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>512</v>
       </c>
@@ -3354,8 +3429,11 @@
         <v>431</v>
       </c>
       <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X26" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>513</v>
       </c>
@@ -3391,8 +3469,11 @@
         <v>110</v>
       </c>
       <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X27" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>514</v>
       </c>
@@ -3428,8 +3509,11 @@
         <v>114</v>
       </c>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X28" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>515</v>
       </c>
@@ -3465,8 +3549,11 @@
         <v>118</v>
       </c>
       <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X29" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>516</v>
       </c>
@@ -3502,8 +3589,11 @@
         <v>122</v>
       </c>
       <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X30" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>517</v>
       </c>
@@ -3539,8 +3629,11 @@
         <v>126</v>
       </c>
       <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X31" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>518</v>
       </c>
@@ -3574,8 +3667,11 @@
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X32" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>519</v>
       </c>
@@ -3611,8 +3707,11 @@
         <v>133</v>
       </c>
       <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X33" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>520</v>
       </c>
@@ -3648,8 +3747,11 @@
         <v>137</v>
       </c>
       <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X34" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>521</v>
       </c>
@@ -3685,8 +3787,11 @@
         <v>141</v>
       </c>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X35" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>522</v>
       </c>
@@ -3722,8 +3827,11 @@
         <v>145</v>
       </c>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X36" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>523</v>
       </c>
@@ -3757,8 +3865,11 @@
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X37" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>524</v>
       </c>
@@ -3794,8 +3905,11 @@
         <v>432</v>
       </c>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>525</v>
       </c>
@@ -3831,8 +3945,11 @@
         <v>433</v>
       </c>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X39" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>526</v>
       </c>
@@ -3868,8 +3985,11 @@
         <v>154</v>
       </c>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X40" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>527</v>
       </c>
@@ -3905,8 +4025,11 @@
         <v>157</v>
       </c>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X41" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>528</v>
       </c>
@@ -3942,8 +4065,11 @@
         <v>434</v>
       </c>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X42" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>529</v>
       </c>
@@ -3979,8 +4105,11 @@
         <v>162</v>
       </c>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X43" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>530</v>
       </c>
@@ -4016,8 +4145,11 @@
         <v>435</v>
       </c>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X44" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>531</v>
       </c>
@@ -4049,8 +4181,11 @@
         <v>167</v>
       </c>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X45" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>532</v>
       </c>
@@ -4086,8 +4221,11 @@
         <v>436</v>
       </c>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X46" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>533</v>
       </c>
@@ -4121,8 +4259,11 @@
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X47" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>534</v>
       </c>
@@ -4158,8 +4299,11 @@
         <v>176</v>
       </c>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X48" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>535</v>
       </c>
@@ -4195,8 +4339,11 @@
         <v>437</v>
       </c>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X49" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>536</v>
       </c>
@@ -4232,8 +4379,11 @@
         <v>438</v>
       </c>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X50" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>537</v>
       </c>
@@ -4269,8 +4419,11 @@
         <v>185</v>
       </c>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X51" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>538</v>
       </c>
@@ -4306,8 +4459,11 @@
         <v>188</v>
       </c>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X52" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>539</v>
       </c>
@@ -4343,8 +4499,11 @@
         <v>192</v>
       </c>
       <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X53" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>540</v>
       </c>
@@ -4380,8 +4539,11 @@
         <v>196</v>
       </c>
       <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X54" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>541</v>
       </c>
@@ -4417,8 +4579,11 @@
         <v>439</v>
       </c>
       <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X55" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>542</v>
       </c>
@@ -4454,8 +4619,11 @@
         <v>203</v>
       </c>
       <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X56" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>543</v>
       </c>
@@ -4491,8 +4659,11 @@
         <v>207</v>
       </c>
       <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X57" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>544</v>
       </c>
@@ -4528,8 +4699,11 @@
         <v>210</v>
       </c>
       <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X58" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>545</v>
       </c>
@@ -4565,8 +4739,11 @@
         <v>214</v>
       </c>
       <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X59" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>546</v>
       </c>
@@ -4602,8 +4779,11 @@
         <v>440</v>
       </c>
       <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X60" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>547</v>
       </c>
@@ -4639,8 +4819,11 @@
         <v>221</v>
       </c>
       <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X61" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>548</v>
       </c>
@@ -4676,8 +4859,11 @@
         <v>225</v>
       </c>
       <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X62" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>549</v>
       </c>
@@ -4713,8 +4899,11 @@
         <v>229</v>
       </c>
       <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X63" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>550</v>
       </c>
@@ -4750,8 +4939,11 @@
         <v>232</v>
       </c>
       <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X64" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>551</v>
       </c>
@@ -4787,8 +4979,11 @@
         <v>441</v>
       </c>
       <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X65" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>552</v>
       </c>
@@ -4824,8 +5019,11 @@
         <v>442</v>
       </c>
       <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X66" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>553</v>
       </c>
@@ -4861,8 +5059,11 @@
         <v>443</v>
       </c>
       <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X67" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>554</v>
       </c>
@@ -4898,8 +5099,11 @@
         <v>444</v>
       </c>
       <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X68" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>555</v>
       </c>
@@ -4935,8 +5139,11 @@
         <v>445</v>
       </c>
       <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X69" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>556</v>
       </c>
@@ -4972,8 +5179,11 @@
         <v>251</v>
       </c>
       <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X70" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>557</v>
       </c>
@@ -5007,8 +5217,11 @@
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X71" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>558</v>
       </c>
@@ -5044,8 +5257,11 @@
         <v>446</v>
       </c>
       <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X72" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>559</v>
       </c>
@@ -5081,8 +5297,11 @@
         <v>447</v>
       </c>
       <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X73" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>560</v>
       </c>
@@ -5118,8 +5337,11 @@
         <v>263</v>
       </c>
       <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X74" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>561</v>
       </c>
@@ -5155,8 +5377,11 @@
         <v>267</v>
       </c>
       <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X75" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>562</v>
       </c>
@@ -5192,8 +5417,11 @@
         <v>271</v>
       </c>
       <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X76" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>563</v>
       </c>
@@ -5229,8 +5457,11 @@
         <v>275</v>
       </c>
       <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X77" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>564</v>
       </c>
@@ -5266,8 +5497,11 @@
         <v>279</v>
       </c>
       <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X78" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>565</v>
       </c>
@@ -5303,8 +5537,11 @@
         <v>448</v>
       </c>
       <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X79" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>566</v>
       </c>
@@ -5340,8 +5577,11 @@
         <v>449</v>
       </c>
       <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>567</v>
       </c>
@@ -5377,8 +5617,11 @@
         <v>450</v>
       </c>
       <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X81" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>568</v>
       </c>
@@ -5414,8 +5657,11 @@
         <v>451</v>
       </c>
       <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X82" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>569</v>
       </c>
@@ -5449,8 +5695,11 @@
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X83" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>570</v>
       </c>
@@ -5486,8 +5735,11 @@
         <v>452</v>
       </c>
       <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X84" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>571</v>
       </c>
@@ -5523,8 +5775,11 @@
         <v>297</v>
       </c>
       <c r="U85" s="1"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X85" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>572</v>
       </c>
@@ -5556,8 +5811,11 @@
         <v>453</v>
       </c>
       <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X86" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>573</v>
       </c>
@@ -5587,8 +5845,11 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X87" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>574</v>
       </c>
@@ -5618,8 +5879,11 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X88" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>575</v>
       </c>
@@ -5649,8 +5913,11 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X89" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>576</v>
       </c>
@@ -5680,8 +5947,11 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X90" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>577</v>
       </c>
@@ -5713,8 +5983,11 @@
         <v>309</v>
       </c>
       <c r="U91" s="1"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X91" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>578</v>
       </c>
@@ -5746,8 +6019,11 @@
         <v>312</v>
       </c>
       <c r="U92" s="1"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X92" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>579</v>
       </c>
@@ -5779,8 +6055,11 @@
         <v>315</v>
       </c>
       <c r="U93" s="1"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X93" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>580</v>
       </c>
@@ -5812,8 +6091,11 @@
         <v>318</v>
       </c>
       <c r="U94" s="1"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X94" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>581</v>
       </c>
@@ -5845,8 +6127,11 @@
         <v>321</v>
       </c>
       <c r="U95" s="1"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X95" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>582</v>
       </c>
@@ -5878,8 +6163,11 @@
         <v>324</v>
       </c>
       <c r="U96" s="1"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X96" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>583</v>
       </c>
@@ -5909,8 +6197,11 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X97" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>584</v>
       </c>
@@ -5940,8 +6231,11 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X98" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>585</v>
       </c>
@@ -5973,8 +6267,11 @@
         <v>454</v>
       </c>
       <c r="U99" s="1"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X99" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>586</v>
       </c>
@@ -6006,8 +6303,11 @@
         <v>455</v>
       </c>
       <c r="U100" s="1"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X100" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>587</v>
       </c>
@@ -6039,8 +6339,11 @@
         <v>456</v>
       </c>
       <c r="U101" s="1"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X101" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>588</v>
       </c>
@@ -6072,8 +6375,11 @@
         <v>457</v>
       </c>
       <c r="U102" s="1"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X102" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>589</v>
       </c>
@@ -6105,8 +6411,11 @@
         <v>332</v>
       </c>
       <c r="U103" s="1"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X103" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>590</v>
       </c>
@@ -6136,8 +6445,11 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X104" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>591</v>
       </c>
@@ -6167,8 +6479,11 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X105" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>592</v>
       </c>
@@ -6198,8 +6513,11 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X106" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>593</v>
       </c>
@@ -6229,8 +6547,11 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X107" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>594</v>
       </c>
@@ -6260,8 +6581,11 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X108" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>595</v>
       </c>
@@ -6293,8 +6617,11 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X109" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>596</v>
       </c>
@@ -6326,8 +6653,11 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X110" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>597</v>
       </c>
@@ -6359,8 +6689,11 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X111" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>598</v>
       </c>
@@ -6390,8 +6723,11 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X112" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>599</v>
       </c>
@@ -6423,8 +6759,11 @@
         <v>458</v>
       </c>
       <c r="U113" s="1"/>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X113" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>600</v>
       </c>
@@ -6456,8 +6795,11 @@
         <v>459</v>
       </c>
       <c r="U114" s="1"/>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X114" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>601</v>
       </c>
@@ -6489,8 +6831,11 @@
         <v>460</v>
       </c>
       <c r="U115" s="1"/>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X115" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>602</v>
       </c>
@@ -6522,8 +6867,11 @@
         <v>461</v>
       </c>
       <c r="U116" s="1"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X116" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>603</v>
       </c>
@@ -6555,8 +6903,11 @@
         <v>462</v>
       </c>
       <c r="U117" s="1"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X117" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>604</v>
       </c>
@@ -6588,8 +6939,11 @@
         <v>463</v>
       </c>
       <c r="U118" s="1"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X118" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>605</v>
       </c>
@@ -6621,8 +6975,11 @@
         <v>464</v>
       </c>
       <c r="U119" s="1"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X119" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>606</v>
       </c>
@@ -6654,8 +7011,11 @@
         <v>465</v>
       </c>
       <c r="U120" s="1"/>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X120" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>607</v>
       </c>
@@ -6687,8 +7047,11 @@
         <v>466</v>
       </c>
       <c r="U121" s="1"/>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X121" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>608</v>
       </c>
@@ -6718,8 +7081,11 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-    </row>
-    <row r="123" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X122" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>609</v>
       </c>
@@ -6751,8 +7117,11 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X123" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>610</v>
       </c>
@@ -6784,8 +7153,11 @@
         <v>467</v>
       </c>
       <c r="U124" s="1"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X124" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>611</v>
       </c>
@@ -6817,8 +7189,11 @@
         <v>468</v>
       </c>
       <c r="U125" s="1"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X125" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>612</v>
       </c>
@@ -6852,8 +7227,11 @@
       <c r="U126" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X126" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>613</v>
       </c>
@@ -6887,8 +7265,11 @@
         <v>398</v>
       </c>
       <c r="U127" s="1"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X127" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>614</v>
       </c>
@@ -6918,8 +7299,11 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X128" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>615</v>
       </c>
@@ -6953,8 +7337,11 @@
         <v>470</v>
       </c>
       <c r="U129" s="1"/>
-    </row>
-    <row r="130" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X129" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>616</v>
       </c>
@@ -6986,8 +7373,11 @@
         <v>469</v>
       </c>
       <c r="U130" s="1"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X130" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>617</v>
       </c>
@@ -7021,8 +7411,11 @@
         <v>471</v>
       </c>
       <c r="U131" s="1"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X131" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>618</v>
       </c>
@@ -7056,8 +7449,11 @@
         <v>472</v>
       </c>
       <c r="U132" s="1"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X132" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>619</v>
       </c>
@@ -7089,8 +7485,11 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X133" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>620</v>
       </c>
@@ -7122,8 +7521,11 @@
         <v>473</v>
       </c>
       <c r="U134" s="1"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X134" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>621</v>
       </c>
@@ -7155,8 +7557,11 @@
         <v>384</v>
       </c>
       <c r="U135" s="1"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X135" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>622</v>
       </c>
@@ -7186,8 +7591,11 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X136" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>623</v>
       </c>
@@ -7217,8 +7625,11 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X137" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>624</v>
       </c>
@@ -7248,8 +7659,11 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X138" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>625</v>
       </c>
@@ -7281,8 +7695,11 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X139" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>390</v>
       </c>
@@ -7312,8 +7729,11 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X140" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>402</v>
       </c>
@@ -7345,14 +7765,17 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X141" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
   </sheetData>
@@ -7363,9 +7786,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7586,27 +8012,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540B60B0-E773-465F-95E3-DB91DD484912}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3E6CAA-8F66-4557-92A1-A396A4C38AC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
-    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7631,9 +8045,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3E6CAA-8F66-4557-92A1-A396A4C38AC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540B60B0-E773-465F-95E3-DB91DD484912}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
+    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Source/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D33B81-AE1C-3844-88A9-EEB2CAF09FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900F0271-73E9-E742-AAF9-0436D1475687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="640">
   <si>
     <t>ID</t>
   </si>
@@ -1937,13 +1937,19 @@
   </si>
   <si>
     <t>Published</t>
+  </si>
+  <si>
+    <t>Sub-ontology</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,6 +1961,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2288,15 +2295,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="X88" sqref="X88"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="16">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,8 +2382,11 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2413,8 +2423,11 @@
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2451,8 +2464,11 @@
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -2491,8 +2507,11 @@
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2529,8 +2548,11 @@
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2573,8 +2595,11 @@
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -2615,8 +2640,11 @@
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2659,8 +2687,11 @@
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -2703,8 +2734,11 @@
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2747,8 +2781,11 @@
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
@@ -2789,8 +2826,11 @@
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -2833,8 +2873,11 @@
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
@@ -2877,8 +2920,11 @@
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
@@ -2921,8 +2967,11 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -2965,8 +3014,11 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>100</v>
       </c>
@@ -3005,8 +3057,11 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -3049,8 +3104,11 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -3089,8 +3147,11 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>115</v>
       </c>
@@ -3133,8 +3194,11 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>120</v>
       </c>
@@ -3171,8 +3235,11 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>123</v>
       </c>
@@ -3215,8 +3282,11 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -3259,8 +3329,11 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>133</v>
       </c>
@@ -3303,8 +3376,11 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>138</v>
       </c>
@@ -3347,8 +3423,11 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>143</v>
       </c>
@@ -3391,8 +3470,11 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -3435,8 +3517,11 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -3475,8 +3560,11 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>158</v>
       </c>
@@ -3517,8 +3605,11 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>163</v>
       </c>
@@ -3557,8 +3648,11 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>168</v>
       </c>
@@ -3601,8 +3695,11 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>173</v>
       </c>
@@ -3645,8 +3742,11 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
@@ -3683,8 +3783,11 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>181</v>
       </c>
@@ -3721,8 +3824,11 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>184</v>
       </c>
@@ -3765,8 +3871,11 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>189</v>
       </c>
@@ -3809,8 +3918,11 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>194</v>
       </c>
@@ -3849,8 +3961,11 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>198</v>
       </c>
@@ -3891,8 +4006,11 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>202</v>
       </c>
@@ -3931,8 +4049,11 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>207</v>
       </c>
@@ -3969,8 +4090,11 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>209</v>
       </c>
@@ -4009,8 +4133,11 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>214</v>
       </c>
@@ -4053,8 +4180,11 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>219</v>
       </c>
@@ -4091,8 +4221,11 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
@@ -4131,8 +4264,11 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>225</v>
       </c>
@@ -4175,8 +4311,11 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>231</v>
       </c>
@@ -4215,8 +4354,11 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>235</v>
       </c>
@@ -4259,8 +4401,11 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>239</v>
       </c>
@@ -4303,8 +4448,11 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>244</v>
       </c>
@@ -4347,8 +4495,11 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>249</v>
       </c>
@@ -4387,8 +4538,11 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>253</v>
       </c>
@@ -4427,8 +4581,11 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>256</v>
       </c>
@@ -4471,8 +4628,11 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>261</v>
       </c>
@@ -4509,8 +4669,11 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>264</v>
       </c>
@@ -4553,8 +4716,11 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>269</v>
       </c>
@@ -4593,8 +4759,11 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>272</v>
       </c>
@@ -4633,8 +4802,11 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>276</v>
       </c>
@@ -4677,8 +4849,11 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>281</v>
       </c>
@@ -4721,8 +4896,11 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>286</v>
       </c>
@@ -4763,8 +4941,11 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>289</v>
       </c>
@@ -4807,8 +4988,11 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>294</v>
       </c>
@@ -4847,8 +5031,11 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>298</v>
       </c>
@@ -4887,8 +5074,11 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>302</v>
       </c>
@@ -4931,8 +5121,11 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>307</v>
       </c>
@@ -4971,8 +5164,11 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>311</v>
       </c>
@@ -5015,8 +5211,11 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>316</v>
       </c>
@@ -5059,8 +5258,11 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>321</v>
       </c>
@@ -5103,8 +5305,11 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>325</v>
       </c>
@@ -5147,8 +5352,11 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>331</v>
       </c>
@@ -5191,8 +5399,11 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>336</v>
       </c>
@@ -5231,8 +5442,11 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>341</v>
       </c>
@@ -5275,8 +5489,11 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
@@ -5315,8 +5532,11 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>350</v>
       </c>
@@ -5355,8 +5575,11 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>353</v>
       </c>
@@ -5399,8 +5622,11 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>357</v>
       </c>
@@ -5441,8 +5667,11 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>362</v>
       </c>
@@ -5485,8 +5714,11 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>367</v>
       </c>
@@ -5529,8 +5761,11 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>372</v>
       </c>
@@ -5569,8 +5804,11 @@
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>376</v>
       </c>
@@ -5613,8 +5851,11 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -5633,8 +5874,11 @@
       <c r="X79" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>387</v>
       </c>
@@ -5673,8 +5917,11 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>391</v>
       </c>
@@ -5711,8 +5958,11 @@
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>393</v>
       </c>
@@ -5751,8 +6001,11 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>397</v>
       </c>
@@ -5795,8 +6048,11 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>402</v>
       </c>
@@ -5835,8 +6091,11 @@
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>406</v>
       </c>
@@ -5875,8 +6134,11 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>409</v>
       </c>
@@ -5913,8 +6175,11 @@
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>412</v>
       </c>
@@ -5933,8 +6198,11 @@
       <c r="X87" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>417</v>
       </c>
@@ -5973,8 +6241,11 @@
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>420</v>
       </c>
@@ -6011,8 +6282,11 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>422</v>
       </c>
@@ -6055,8 +6329,11 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>427</v>
       </c>
@@ -6093,8 +6370,11 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>429</v>
       </c>
@@ -6137,8 +6417,11 @@
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>434</v>
       </c>
@@ -6181,8 +6464,11 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>439</v>
       </c>
@@ -6225,8 +6511,11 @@
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>444</v>
       </c>
@@ -6269,8 +6558,11 @@
       </c>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>449</v>
       </c>
@@ -6313,8 +6605,11 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>453</v>
       </c>
@@ -6353,8 +6648,11 @@
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>456</v>
       </c>
@@ -6395,8 +6693,11 @@
       </c>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>460</v>
       </c>
@@ -6437,8 +6738,11 @@
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="AA99" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>463</v>
       </c>
@@ -6481,8 +6785,11 @@
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>468</v>
       </c>
@@ -6519,8 +6826,11 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>471</v>
       </c>
@@ -6563,8 +6873,11 @@
       </c>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>477</v>
       </c>
@@ -6601,8 +6914,11 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>479</v>
       </c>
@@ -6645,8 +6961,11 @@
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>484</v>
       </c>
@@ -6685,8 +7004,11 @@
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>488</v>
       </c>
@@ -6729,8 +7051,11 @@
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>493</v>
       </c>
@@ -6769,8 +7094,11 @@
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>497</v>
       </c>
@@ -6813,8 +7141,11 @@
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="AA108" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>502</v>
       </c>
@@ -6851,8 +7182,11 @@
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>505</v>
       </c>
@@ -6895,8 +7229,11 @@
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="AA110" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>510</v>
       </c>
@@ -6939,8 +7276,11 @@
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>515</v>
       </c>
@@ -6981,8 +7321,11 @@
       </c>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-    </row>
-    <row r="113" spans="1:26">
+      <c r="AA112" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>518</v>
       </c>
@@ -7021,8 +7364,11 @@
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AA113" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>522</v>
       </c>
@@ -7065,8 +7411,11 @@
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-    </row>
-    <row r="115" spans="1:26">
+      <c r="AA114" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>527</v>
       </c>
@@ -7109,8 +7458,11 @@
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-    </row>
-    <row r="116" spans="1:26">
+      <c r="AA115" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>531</v>
       </c>
@@ -7153,8 +7505,11 @@
       </c>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-    </row>
-    <row r="117" spans="1:26">
+      <c r="AA116" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>536</v>
       </c>
@@ -7197,8 +7552,11 @@
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-    </row>
-    <row r="118" spans="1:26">
+      <c r="AA117" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>541</v>
       </c>
@@ -7237,8 +7595,11 @@
       </c>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-    </row>
-    <row r="119" spans="1:26">
+      <c r="AA118" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>543</v>
       </c>
@@ -7275,8 +7636,11 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-    </row>
-    <row r="120" spans="1:26">
+      <c r="AA119" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>547</v>
       </c>
@@ -7313,8 +7677,11 @@
       </c>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-    </row>
-    <row r="121" spans="1:26">
+      <c r="AA120" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>549</v>
       </c>
@@ -7351,8 +7718,11 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-    </row>
-    <row r="122" spans="1:26">
+      <c r="AA121" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>552</v>
       </c>
@@ -7395,8 +7765,11 @@
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-    </row>
-    <row r="123" spans="1:26">
+      <c r="AA122" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>557</v>
       </c>
@@ -7439,8 +7812,11 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-    </row>
-    <row r="124" spans="1:26">
+      <c r="AA123" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>563</v>
       </c>
@@ -7483,8 +7859,11 @@
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-    </row>
-    <row r="125" spans="1:26">
+      <c r="AA124" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>567</v>
       </c>
@@ -7527,8 +7906,11 @@
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-    </row>
-    <row r="126" spans="1:26">
+      <c r="AA125" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>572</v>
       </c>
@@ -7567,8 +7949,11 @@
       </c>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-    </row>
-    <row r="127" spans="1:26">
+      <c r="AA126" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>576</v>
       </c>
@@ -7605,8 +7990,11 @@
       </c>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-    </row>
-    <row r="128" spans="1:26">
+      <c r="AA127" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
@@ -7647,8 +8035,11 @@
       </c>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-    </row>
-    <row r="129" spans="1:26">
+      <c r="AA128" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>582</v>
       </c>
@@ -7687,8 +8078,11 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-    </row>
-    <row r="130" spans="1:26">
+      <c r="AA129" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>586</v>
       </c>
@@ -7731,8 +8125,11 @@
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-    </row>
-    <row r="131" spans="1:26">
+      <c r="AA130" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>591</v>
       </c>
@@ -7775,8 +8172,11 @@
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-    </row>
-    <row r="132" spans="1:26">
+      <c r="AA131" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>595</v>
       </c>
@@ -7817,8 +8217,11 @@
       </c>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-    </row>
-    <row r="133" spans="1:26">
+      <c r="AA132" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>598</v>
       </c>
@@ -7857,8 +8260,11 @@
       </c>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-    </row>
-    <row r="134" spans="1:26">
+      <c r="AA133" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>601</v>
       </c>
@@ -7901,8 +8307,11 @@
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-    </row>
-    <row r="135" spans="1:26">
+      <c r="AA134" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>606</v>
       </c>
@@ -7945,8 +8354,11 @@
       </c>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-    </row>
-    <row r="136" spans="1:26">
+      <c r="AA135" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>611</v>
       </c>
@@ -7985,8 +8397,11 @@
       </c>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-    </row>
-    <row r="137" spans="1:26">
+      <c r="AA136" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>615</v>
       </c>
@@ -8029,8 +8444,11 @@
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-    </row>
-    <row r="138" spans="1:26">
+      <c r="AA137" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>620</v>
       </c>
@@ -8073,8 +8491,11 @@
       </c>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-    </row>
-    <row r="139" spans="1:26">
+      <c r="AA138" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>625</v>
       </c>
@@ -8117,8 +8538,11 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-    </row>
-    <row r="140" spans="1:26">
+      <c r="AA139" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>630</v>
       </c>
@@ -8155,8 +8579,11 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-    </row>
-    <row r="141" spans="1:26">
+      <c r="AA140" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>633</v>
       </c>
@@ -8197,6 +8624,9 @@
       </c>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
+      <c r="AA141" t="s">
+        <v>639</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Source/inputs/BCIO_Source.xlsx
+++ b/Source/inputs/BCIO_Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Source/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B51BF-71CE-AC4A-8727-0F5B30FB3A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4887972-7968-E945-B873-D177F72C9C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>REL 'has participant' [RO:0000057]</t>
   </si>
   <si>
-    <t>REL 'inheres in' [RO:0000052]</t>
-  </si>
-  <si>
     <t>REL 'has part' [BFO:0000051]</t>
   </si>
   <si>
@@ -1959,6 +1956,9 @@
   </si>
   <si>
     <t>voluntary basis, volunteering</t>
+  </si>
+  <si>
+    <t>REL 'characteristic of' [RO:0000052]</t>
   </si>
 </sst>
 </file>
@@ -2313,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2339,78 +2339,78 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2426,7 +2426,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -2435,23 +2435,23 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2467,34 +2467,34 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2510,7 +2510,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -2519,23 +2519,23 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2551,38 +2551,38 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2596,38 +2596,38 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2643,38 +2643,38 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2690,38 +2690,38 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2737,38 +2737,38 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2784,36 +2784,36 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="S10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2829,38 +2829,38 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2876,38 +2876,38 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2923,38 +2923,38 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2970,7 +2970,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -2978,26 +2978,26 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3013,38 +3013,38 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3060,34 +3060,34 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3103,38 +3103,38 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3150,34 +3150,34 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3193,38 +3193,38 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3240,7 +3240,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -3249,23 +3249,23 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3281,38 +3281,38 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3328,38 +3328,38 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3375,38 +3375,38 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3422,38 +3422,38 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3469,38 +3469,38 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3516,38 +3516,38 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3563,34 +3563,34 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3605,37 +3605,37 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3651,34 +3651,34 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -3694,38 +3694,38 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3741,38 +3741,38 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3788,7 +3788,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -3797,23 +3797,23 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3829,7 +3829,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -3838,23 +3838,23 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3870,38 +3870,38 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="S34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3917,38 +3917,38 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R35" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="S35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -3964,34 +3964,34 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4007,36 +4007,36 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4051,10 +4051,10 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -4063,23 +4063,23 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4095,7 +4095,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -4104,23 +4104,23 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4136,34 +4136,34 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4179,38 +4179,38 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="S41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4226,7 +4226,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -4235,23 +4235,23 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4267,34 +4267,34 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4310,38 +4310,38 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="R44" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="S44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T44" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4357,34 +4357,34 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4400,38 +4400,38 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="R46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="S46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T46" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4447,38 +4447,38 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="S47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4494,38 +4494,38 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R48" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="S48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T48" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4541,34 +4541,34 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4584,34 +4584,34 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4627,38 +4627,38 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="R51" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="S51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T51" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4674,7 +4674,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -4683,23 +4683,23 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4715,38 +4715,38 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="R53" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="S53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T53" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4762,34 +4762,34 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4805,34 +4805,34 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4848,38 +4848,38 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R56" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4895,38 +4895,38 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R57" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="S57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4942,36 +4942,36 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R58" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="R58" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="S58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4987,38 +4987,38 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="S59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5034,34 +5034,34 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5077,34 +5077,34 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5120,38 +5120,38 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="R62" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="S62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T62" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5167,34 +5167,34 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5210,38 +5210,38 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="S64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T64" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5257,38 +5257,38 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="R65" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="S65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T65" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5304,38 +5304,38 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R66" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="S66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T66" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5351,38 +5351,38 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="R67" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="S67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T67" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5398,38 +5398,38 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R68" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="S68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T68" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5445,34 +5445,34 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5488,38 +5488,38 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="R70" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="S70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T70" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5535,34 +5535,34 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5576,11 +5576,11 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
@@ -5589,23 +5589,23 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5621,38 +5621,38 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R73" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="S73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T73" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5668,36 +5668,36 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R74" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="S74" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5713,38 +5713,38 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="R75" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="S75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T75" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5760,38 +5760,38 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="R76" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="S76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T76" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5807,34 +5807,34 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5850,64 +5850,64 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R78" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="S78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T78" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" t="s">
         <v>385</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>386</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>387</v>
       </c>
-      <c r="E79" t="s">
+      <c r="Q79" t="s">
         <v>388</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="X79" t="s">
         <v>389</v>
       </c>
-      <c r="X79" t="s">
-        <v>390</v>
-      </c>
       <c r="AA79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -5922,7 +5922,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
@@ -5931,23 +5931,23 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5963,7 +5963,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
@@ -5972,23 +5972,23 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6004,34 +6004,34 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6047,38 +6047,38 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="S83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T83" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6094,39 +6094,39 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -6139,7 +6139,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -6148,23 +6148,23 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
       <c r="X85" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6180,7 +6180,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
@@ -6189,49 +6189,49 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" t="s">
         <v>416</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>417</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>418</v>
       </c>
-      <c r="E87" t="s">
+      <c r="Q87" t="s">
         <v>419</v>
       </c>
-      <c r="Q87" t="s">
-        <v>420</v>
-      </c>
       <c r="X87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -6246,7 +6246,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -6255,23 +6255,23 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6287,7 +6287,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
@@ -6296,23 +6296,23 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6328,38 +6328,38 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="R90" s="2" t="s">
+      <c r="S90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T90" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6375,7 +6375,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -6384,23 +6384,23 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
       <c r="X91" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6416,38 +6416,38 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="R92" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="S92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T92" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6463,38 +6463,38 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="R93" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="R93" s="2" t="s">
+      <c r="S93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T93" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6510,38 +6510,38 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R94" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="R94" s="2" t="s">
+      <c r="S94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T94" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="S94" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T94" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6557,38 +6557,38 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="R95" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="R95" s="2" t="s">
+      <c r="S95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T95" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6604,38 +6604,38 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T96" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6651,34 +6651,34 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6694,36 +6694,36 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R98" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="R98" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="S98" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6739,36 +6739,36 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R99" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="R99" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="S99" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6784,38 +6784,38 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R100" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="R100" s="2" t="s">
+      <c r="S100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T100" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
       <c r="AA100" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6831,7 +6831,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
@@ -6840,23 +6840,23 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
       <c r="AA101" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6872,38 +6872,38 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R102" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="R102" s="2" t="s">
+      <c r="S102" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T102" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
       <c r="AA102" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6919,7 +6919,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -6928,23 +6928,23 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6960,38 +6960,38 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R104" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="R104" s="2" t="s">
+      <c r="S104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
       <c r="AA104" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -7007,34 +7007,34 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
       <c r="AA105" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -7050,38 +7050,38 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="R106" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="R106" s="2" t="s">
+      <c r="S106" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T106" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -7097,34 +7097,34 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
       <c r="AA107" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -7140,38 +7140,38 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="R108" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="R108" s="2" t="s">
+      <c r="S108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
       <c r="AA108" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -7187,7 +7187,7 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
@@ -7196,23 +7196,23 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
       <c r="AA109" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -7228,38 +7228,38 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="R110" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="R110" s="2" t="s">
+      <c r="S110" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T110" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="S110" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T110" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7275,38 +7275,38 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="R111" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="R111" s="2" t="s">
+      <c r="S111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T111" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T111" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
       <c r="AA111" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -7322,36 +7322,36 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R112" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="R112" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="S112" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7367,34 +7367,34 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7410,38 +7410,38 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="R114" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="R114" s="2" t="s">
+      <c r="S114" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T114" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="S114" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T114" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
       <c r="AA114" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7457,38 +7457,38 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="R115" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="R115" s="2" t="s">
+      <c r="S115" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T115" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
       <c r="AA115" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -7504,38 +7504,38 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="R116" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="R116" s="2" t="s">
+      <c r="S116" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T116" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
       <c r="AA116" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -7551,38 +7551,38 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="R117" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="R117" s="2" t="s">
+      <c r="S117" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T117" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="S117" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T117" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -7597,10 +7597,10 @@
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
@@ -7609,23 +7609,23 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7641,7 +7641,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
@@ -7650,23 +7650,23 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -7682,7 +7682,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
@@ -7691,23 +7691,23 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
       <c r="AA120" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -7723,7 +7723,7 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
@@ -7732,23 +7732,23 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -7764,38 +7764,38 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="R122" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="R122" s="2" t="s">
+      <c r="S122" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T122" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="S122" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
       <c r="X122" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
       <c r="AA122" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -7811,38 +7811,38 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="R123" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="R123" s="2" t="s">
+      <c r="S123" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T123" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="S123" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T123" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
       <c r="X123" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
       <c r="AA123" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7858,38 +7858,38 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="R124" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="R124" s="2" t="s">
+      <c r="S124" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T124" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="S124" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
       <c r="AA124" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -7905,38 +7905,38 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="R125" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="R125" s="2" t="s">
+      <c r="S125" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T125" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="S125" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
       <c r="X125" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -7952,34 +7952,34 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7995,7 +7995,7 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
@@ -8004,28 +8004,28 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -8038,34 +8038,34 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8081,34 +8081,34 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8124,38 +8124,38 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="R130" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="R130" s="2" t="s">
+      <c r="S130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T130" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="S130" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8171,38 +8171,38 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="R131" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="R131" s="2" t="s">
+      <c r="S131" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T131" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8218,36 +8218,36 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="R132" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="R132" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="S132" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8261,11 +8261,11 @@
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
@@ -8274,23 +8274,23 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
       <c r="AA133" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8306,38 +8306,38 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="R134" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="R134" s="2" t="s">
+      <c r="S134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T134" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="S134" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T134" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
       <c r="AA134" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8353,38 +8353,38 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R135" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="R135" s="2" t="s">
+      <c r="S135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T135" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="S135" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T135" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
       <c r="AA135" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8400,34 +8400,34 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8443,38 +8443,38 @@
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="R137" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="R137" s="2" t="s">
+      <c r="S137" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T137" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="S137" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8490,38 +8490,38 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="R138" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="R138" s="2" t="s">
+      <c r="S138" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T138" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="S138" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
       <c r="AA138" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>630</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8537,38 +8537,38 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="R139" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="R139" s="2" t="s">
+      <c r="S139" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T139" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="S139" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
       <c r="X139" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
       <c r="AA139" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8584,7 +8584,7 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
@@ -8593,28 +8593,28 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
       <c r="AA140" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -8627,23 +8627,23 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
       <c r="X141" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
       <c r="AA141" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
